--- a/만들고 싶은 게임 기획서와 기타등등/스토리 역기획서/메이플 루미너스 테네브리스 스토리 역기획서.xlsx
+++ b/만들고 싶은 게임 기획서와 기타등등/스토리 역기획서/메이플 루미너스 테네브리스 스토리 역기획서.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\아카데미\Academy2\만들고 싶은 게임 기획서와 기타등등\스토리 역기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F485FD03-8912-478B-A99D-2E6BBE2A1D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BE2D20-C0CF-4826-9330-A228D5425DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{47296EBE-0E62-4311-A99F-9ED33CACD54B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="4" xr2:uid="{47296EBE-0E62-4311-A99F-9ED33CACD54B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="루미너스 스토리 분석" sheetId="2" r:id="rId1"/>
+    <sheet name="테네브리스 스토리 분석" sheetId="1" r:id="rId2"/>
+    <sheet name="테네브리스 속 루미너스 추가 스크립트 분석" sheetId="3" r:id="rId3"/>
+    <sheet name="루미너스 테네브리스 역기획서 준비페이지" sheetId="4" r:id="rId4"/>
+    <sheet name="루미너스 테네브리스 역기획서 " sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -22,6 +26,15 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>테</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,10 +395,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31DCC93E-C348-4279-8D4E-9964E50DB687}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92013ED4-AC77-45EE-9CF2-9A256659990A}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -394,4 +422,51 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3F8AFC-0FE8-4651-8A56-9CB9811A706C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC040FD-9C82-4BCA-8594-8B5A25B41CE7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B55915A2-C724-4DD8-BD24-A585013DC9E2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/만들고 싶은 게임 기획서와 기타등등/스토리 역기획서/메이플 루미너스 테네브리스 스토리 역기획서.xlsx
+++ b/만들고 싶은 게임 기획서와 기타등등/스토리 역기획서/메이플 루미너스 테네브리스 스토리 역기획서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\아카데미\Academy2\만들고 싶은 게임 기획서와 기타등등\스토리 역기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BE2D20-C0CF-4826-9330-A228D5425DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8151E3E-E98E-4F3D-B77E-348D0E880707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="4" xr2:uid="{47296EBE-0E62-4311-A99F-9ED33CACD54B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{47296EBE-0E62-4311-A99F-9ED33CACD54B}"/>
   </bookViews>
   <sheets>
     <sheet name="루미너스 스토리 분석" sheetId="2" r:id="rId1"/>
@@ -29,9 +29,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>테</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테네브리스 스토리 분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 테네브리스 1지역, 문브릿지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 테네브리스 2지역, 고통의 미궁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 테네브리스 3지역, 리멘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키워드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한줄 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테네브리스의 키한매특방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특징</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방향성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문브릿지의 키한매특방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고통의 미궁의 키한매특방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리멘의 키한매특방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아케인 리버의 끝에서, 세상을 멸망 시킨 후 재창조 하려는 검은 마법사와의 최후의 결전을 위한 여정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검은 마법사 / 최후의 결전 / 아케인 리버의 끝 / 세상의 멸망과 재창조 / 여정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검은 마법사와 관련된 보스 / 최후의 여정에 걸맞는 맵 컨셉 / 최후의 여정에 걸맞는 몬스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc를 가로막는 검은 마법사의 사념 더스크 / 까다로운 패턴을 활용한, 미모로 인기 많은 진힐라 / 검은 마법사의 친위대 듄켈 / 안개속 - 미궁 속 - 세상이 끝나는 곳 으로 이어지는 여정 / 안개속 괴물 - 미궁속 스러져간 병사의 환영 - 도형같은 몬스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc에게 어디가 어디인지 알 수 없는 공포와 두려움을 주고, 강력한 보스들로 시련과 좌절 그 끝에 보상과 쾌감을 주며, 검은 마법사와의 싸움을 대비하게 하겠다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -411,14 +483,170 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92013ED4-AC77-45EE-9CF2-9A256659990A}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:D42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -460,7 +688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B55915A2-C724-4DD8-BD24-A585013DC9E2}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
